--- a/love.xlsx
+++ b/love.xlsx
@@ -20,7 +20,7 @@
     <sheet name="vật dụng" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ae!$C$2:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ae!$C$2:$E$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bạn!$C$3:$F$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">xóm!$D$4:$F$34</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
   <si>
     <t>vinh</t>
   </si>
@@ -340,13 +340,29 @@
   </si>
   <si>
     <t>tình trạng tham gia</t>
+  </si>
+  <si>
+    <t>thư thi</t>
+  </si>
+  <si>
+    <t>chụp hình</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
+  </si>
+  <si>
+    <t>có</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +386,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,10 +475,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,6 +509,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,9 +524,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,7 +814,7 @@
   <dimension ref="C3:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1089,7 @@
   <dimension ref="C3:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1157,9 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="12">
@@ -1124,7 +1170,9 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="12">
@@ -1321,7 +1369,9 @@
         <v>72</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -1333,7 +1383,9 @@
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="12">
@@ -1398,8 +1450,12 @@
         <v>79</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="12">
@@ -1506,7 +1562,7 @@
       <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1779,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F39"/>
+  <dimension ref="C2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1872,7 @@
       <c r="E3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
@@ -1828,7 +1884,9 @@
       <c r="E4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="7">
@@ -1840,7 +1898,9 @@
       <c r="E5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
@@ -1852,7 +1912,7 @@
       <c r="E6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="7">
@@ -1864,7 +1924,7 @@
       <c r="E7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="7">
@@ -1876,7 +1936,7 @@
       <c r="E8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="7">
@@ -1885,8 +1945,10 @@
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="7">
@@ -1896,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="7">
@@ -1908,7 +1970,9 @@
       <c r="E11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="7">
@@ -1920,7 +1984,9 @@
       <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="7">
@@ -1930,7 +1996,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="7">
@@ -1939,8 +2005,10 @@
       <c r="D14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7">
@@ -1952,7 +2020,9 @@
       <c r="E15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" s="7">
@@ -1962,7 +2032,7 @@
         <v>31</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7">
@@ -1972,7 +2042,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
@@ -1982,7 +2052,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="7">
@@ -1992,7 +2062,7 @@
         <v>34</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
@@ -2002,7 +2072,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="7">
@@ -2012,7 +2082,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="7">
@@ -2022,7 +2092,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="7">
@@ -2032,7 +2102,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="7">
@@ -2042,7 +2112,7 @@
         <v>39</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="7">
@@ -2051,8 +2121,12 @@
       <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
+      <c r="E25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
@@ -2062,7 +2136,7 @@
         <v>41</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="7">
@@ -2072,7 +2146,7 @@
         <v>42</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="7">
@@ -2082,7 +2156,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="7">
@@ -2092,7 +2166,9 @@
         <v>44</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="7">
@@ -2102,7 +2178,9 @@
         <v>45</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="7">
@@ -2112,7 +2190,9 @@
         <v>46</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="7">
@@ -2122,7 +2202,7 @@
         <v>47</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="7">
@@ -2132,7 +2212,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="7">
@@ -2142,7 +2222,7 @@
         <v>80</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="7">
@@ -2152,7 +2232,7 @@
         <v>86</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="7">
@@ -2162,15 +2242,17 @@
         <v>87</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="7">
         <v>35</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="7">
@@ -2178,7 +2260,7 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="7">
@@ -2186,26 +2268,30 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:E36"/>
+  <autoFilter ref="C2:E39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:G22"/>
+  <dimension ref="E4:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.140625" style="11"/>
     <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:7" x14ac:dyDescent="0.25">
@@ -2215,16 +2301,16 @@
       <c r="F4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E6" s="12">
@@ -2233,13 +2319,13 @@
       <c r="F6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E8" s="12">
@@ -2248,7 +2334,7 @@
       <c r="F8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E9" s="12">
@@ -2257,7 +2343,7 @@
       <c r="F9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E10" s="12">
@@ -2266,7 +2352,7 @@
       <c r="F10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E11" s="12">
@@ -2275,7 +2361,7 @@
       <c r="F11" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E12" s="12">
@@ -2284,7 +2370,7 @@
       <c r="F12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E13" s="12">
@@ -2293,7 +2379,7 @@
       <c r="F13" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E14" s="12">
@@ -2302,73 +2388,91 @@
       <c r="F14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="E15" s="12">
+        <v>10</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="17">
+        <v>5500000</v>
+      </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="17">
+        <f>SUM(G6:G15)</f>
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="13"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E18" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" s="12">
-        <v>4</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E21" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E22" s="12">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="12">
         <v>6</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/love.xlsx
+++ b/love.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="love" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
   <si>
     <t>vinh</t>
   </si>
@@ -315,18 +315,6 @@
     <t>xe đón dâu</t>
   </si>
   <si>
-    <t>đám cưới</t>
-  </si>
-  <si>
-    <t>đám hỏi</t>
-  </si>
-  <si>
-    <t>thuê xe</t>
-  </si>
-  <si>
-    <t>thuê ng bưng tráp</t>
-  </si>
-  <si>
     <t>rượu</t>
   </si>
   <si>
@@ -342,9 +330,6 @@
     <t>tình trạng tham gia</t>
   </si>
   <si>
-    <t>thư thi</t>
-  </si>
-  <si>
     <t>chụp hình</t>
   </si>
   <si>
@@ -352,6 +337,48 @@
   </si>
   <si>
     <t>có</t>
+  </si>
+  <si>
+    <t>váy cưới</t>
+  </si>
+  <si>
+    <t>thành</t>
+  </si>
+  <si>
+    <t>pháo nổ</t>
+  </si>
+  <si>
+    <t>chắc chắn</t>
+  </si>
+  <si>
+    <t>lấp lửng</t>
+  </si>
+  <si>
+    <t>ngỉ chơi</t>
+  </si>
+  <si>
+    <t>bê tráp</t>
+  </si>
+  <si>
+    <t>đối tác</t>
+  </si>
+  <si>
+    <t>hya</t>
+  </si>
+  <si>
+    <t>tình trạng</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thanh toán</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
   </si>
 </sst>
 </file>
@@ -406,15 +433,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -452,17 +503,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -479,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,19 +555,16 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1086,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G34"/>
+  <dimension ref="C3:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C3" sqref="C3:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1138,7 @@
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1115,10 +1152,10 @@
         <v>48</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="12">
         <v>1</v>
       </c>
@@ -1130,10 +1167,10 @@
         <v>50</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="12">
         <v>2</v>
       </c>
@@ -1145,10 +1182,10 @@
         <v>50</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="12">
         <v>3</v>
       </c>
@@ -1158,10 +1195,10 @@
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -1171,21 +1208,27 @@
       <c r="E7" s="13"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="12">
         <v>5</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -1195,41 +1238,56 @@
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="L9" s="22"/>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="12">
         <v>7</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="12">
         <v>8</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="12">
         <v>9</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="12">
         <v>10</v>
       </c>
@@ -1240,7 +1298,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="12">
         <v>11</v>
       </c>
@@ -1251,7 +1309,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="12">
         <v>12</v>
       </c>
@@ -1262,7 +1320,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="12">
         <v>13</v>
       </c>
@@ -1288,12 +1346,14 @@
       <c r="C18" s="12">
         <v>15</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="12">
@@ -1321,12 +1381,14 @@
       <c r="C21" s="12">
         <v>18</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="19" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="12">
@@ -1354,7 +1416,7 @@
       <c r="C24" s="12">
         <v>21</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="19" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="13"/>
@@ -1365,26 +1427,30 @@
       <c r="C25" s="12">
         <v>22</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="20" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="12">
         <v>23</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="19" t="s">
         <v>73</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G26" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
@@ -1395,8 +1461,12 @@
         <v>74</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="12">
@@ -1417,7 +1487,9 @@
         <v>76</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -1428,7 +1500,9 @@
         <v>77</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G30" s="12"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
@@ -1439,7 +1513,9 @@
         <v>78</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
@@ -1454,19 +1530,23 @@
         <v>50</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="12">
         <v>30</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>98</v>
+      <c r="D33" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="12">
@@ -1480,15 +1560,16 @@
   </sheetData>
   <autoFilter ref="C3:F34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:E8"/>
+  <dimension ref="D4:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D4" sqref="D4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,11 +1611,20 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1543,7 +1633,7 @@
   <dimension ref="D4:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D4" sqref="D4:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
@@ -1830,6 +1920,7 @@
   </sheetData>
   <autoFilter ref="D4:F34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1837,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,7 +1950,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -1885,7 +1976,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
@@ -1899,7 +1990,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -1912,7 +2003,9 @@
       <c r="E6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="7">
@@ -1948,7 +2041,9 @@
       <c r="E9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="7">
@@ -1958,7 +2053,9 @@
         <v>26</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="7">
@@ -1971,7 +2068,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
@@ -1985,7 +2082,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
@@ -2008,7 +2105,9 @@
       <c r="E14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7">
@@ -2021,7 +2120,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
@@ -2031,8 +2130,12 @@
       <c r="D16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="7">
@@ -2041,8 +2144,12 @@
       <c r="D17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
@@ -2052,7 +2159,9 @@
         <v>33</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="7">
@@ -2062,7 +2171,9 @@
         <v>34</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="7">
@@ -2112,7 +2223,9 @@
         <v>39</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="7">
@@ -2125,7 +2238,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
@@ -2167,7 +2280,7 @@
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
@@ -2179,7 +2292,7 @@
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
@@ -2191,7 +2304,7 @@
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
@@ -2212,7 +2325,9 @@
         <v>49</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="7">
@@ -2222,7 +2337,9 @@
         <v>80</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="7">
@@ -2248,9 +2365,7 @@
       <c r="C37" s="7">
         <v>35</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>102</v>
-      </c>
+      <c r="D37" s="13"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
@@ -2276,15 +2391,16 @@
   </sheetData>
   <autoFilter ref="C2:E39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:G23"/>
+  <dimension ref="E4:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,9 +2408,11 @@
     <col min="5" max="5" width="9.140625" style="11"/>
     <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
@@ -2304,173 +2422,224 @@
       <c r="G4" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="19" t="s">
+      <c r="H4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="17">
+        <v>125000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="12">
+        <v>5</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="12">
+        <v>6</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="12">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="12">
+        <v>9</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="12">
-        <v>2</v>
-      </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="12">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="12">
-        <v>4</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="12">
-        <v>5</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="12">
-        <v>6</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="12">
-        <v>7</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="12">
-        <v>8</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="G14" s="17">
+        <v>5500000</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="16">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E15" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="17">
-        <v>5500000</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="12">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="G16" s="17">
-        <f>SUM(G6:G15)</f>
-        <v>5500000</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="12">
-        <v>2</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="12">
-        <v>3</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="12">
-        <v>4</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="12">
-        <v>5</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="12">
-        <v>6</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="17"/>
+        <v>1800000</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="16">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="12">
+        <v>11</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="17">
+        <f>SUM(G5:G17)</f>
+        <v>8425000</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23">
+        <v>2.52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E16:F16"/>
+  <mergeCells count="1">
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
